--- a/Glass-Compound-Analysis/dataset/Molecular-data.xlsx
+++ b/Glass-Compound-Analysis/dataset/Molecular-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Deep_Learning_with_TensorFlow\Glass-Compound-Analysis\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Machine_Learning_with_TensorFlow\Glass-Compound-Analysis\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441A3436-4B8B-4A55-9339-1BF888CFE34E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616C316A-6F25-4964-8DAA-C617B49166EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>Erbium</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>Average Density</t>
+  </si>
+  <si>
+    <t>&gt; 5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">density benchmark </t>
+  </si>
+  <si>
+    <t>mv benchmark</t>
+  </si>
+  <si>
+    <t>&lt; 26.092</t>
   </si>
 </sst>
 </file>
@@ -544,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,10 +802,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,6 +1322,22 @@
         <v>27.050317237609327</v>
       </c>
       <c r="AA6" s="2"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1322,7 +1350,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,7 +1866,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:K2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,8 +2090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05159176-D7FA-4E0C-BBE6-0A993963F7CF}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
